--- a/downloads/ActualClaims.xlsx
+++ b/downloads/ActualClaims.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="308">
   <si>
     <t>page_num</t>
   </si>
@@ -28,79 +28,313 @@
     <t>Policy_Number</t>
   </si>
   <si>
-    <t>9R823585</t>
+    <t>7791M9064</t>
   </si>
   <si>
     <t>Policy_Period_End</t>
   </si>
   <si>
-    <t>01/01/2022</t>
-  </si>
-  <si>
-    <t>01/01/2023</t>
+    <t>01/01/2015</t>
   </si>
   <si>
     <t>Policy_Period_Start</t>
   </si>
   <si>
-    <t>01/01/2021</t>
+    <t>01/01/2014</t>
   </si>
   <si>
     <t>Accident_Date</t>
   </si>
   <si>
-    <t>03/21/2022</t>
-  </si>
-  <si>
-    <t>11/24/2022</t>
-  </si>
-  <si>
-    <t>10/02/2022</t>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
   </si>
   <si>
     <t>Report_Date</t>
   </si>
   <si>
-    <t>05/03/2022</t>
-  </si>
-  <si>
-    <t>11/28/2022</t>
-  </si>
-  <si>
-    <t>12/12/2022</t>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>11/26/2014</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
   </si>
   <si>
     <t>Closed_Date</t>
   </si>
   <si>
-    <t>08/29/2023</t>
-  </si>
-  <si>
-    <t>02/06/2023</t>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
   </si>
   <si>
     <t>Report_Run_Date</t>
   </si>
   <si>
-    <t>09/05/2023</t>
+    <t>02/03/2017</t>
   </si>
   <si>
     <t>Valuation_Date</t>
   </si>
   <si>
-    <t>09/03/2023</t>
+    <t>02/01/2017</t>
   </si>
   <si>
     <t>Claim_Number</t>
   </si>
   <si>
-    <t>FRQ3807</t>
-  </si>
-  <si>
-    <t>FRQ9112</t>
-  </si>
-  <si>
-    <t>FRQ9482</t>
+    <t>E2E2873</t>
+  </si>
+  <si>
+    <t>E2E6391</t>
+  </si>
+  <si>
+    <t>EZX4310</t>
+  </si>
+  <si>
+    <t>EZX9578</t>
+  </si>
+  <si>
+    <t>E2E1166</t>
+  </si>
+  <si>
+    <t>E2E5615</t>
+  </si>
+  <si>
+    <t>E2E1857</t>
+  </si>
+  <si>
+    <t>EZX8341</t>
+  </si>
+  <si>
+    <t>EZX4165</t>
+  </si>
+  <si>
+    <t>EZX1670</t>
+  </si>
+  <si>
+    <t>E2E4973</t>
+  </si>
+  <si>
+    <t>EZX1468</t>
+  </si>
+  <si>
+    <t>EZX9579</t>
+  </si>
+  <si>
+    <t>EZX4224</t>
+  </si>
+  <si>
+    <t>EZX9577</t>
+  </si>
+  <si>
+    <t>E2E0015</t>
+  </si>
+  <si>
+    <t>EZX7383</t>
+  </si>
+  <si>
+    <t>E2E2961</t>
+  </si>
+  <si>
+    <t>E2E4590</t>
+  </si>
+  <si>
+    <t>EZX3883</t>
+  </si>
+  <si>
+    <t>EZX2999</t>
+  </si>
+  <si>
+    <t>E2E6550</t>
+  </si>
+  <si>
+    <t>EZX2546</t>
+  </si>
+  <si>
+    <t>EZX9576</t>
+  </si>
+  <si>
+    <t>EZX9580</t>
+  </si>
+  <si>
+    <t>EZX2390</t>
+  </si>
+  <si>
+    <t>E2E4554</t>
   </si>
   <si>
     <t>Claim_Status</t>
@@ -112,7 +346,7 @@
     <t>Line_of_Business</t>
   </si>
   <si>
-    <t>Prop</t>
+    <t>WC</t>
   </si>
   <si>
     <t>Coverage</t>
@@ -121,6 +355,15 @@
     <t>Claim_Type</t>
   </si>
   <si>
+    <t>Medical Only</t>
+  </si>
+  <si>
+    <t>Report Only</t>
+  </si>
+  <si>
+    <t>Indemnity</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
@@ -355,19 +598,169 @@
     <t>accident_description</t>
   </si>
   <si>
-    <t>HAIL DAMAGE TO ROOFS AT BOTH LOCATIONS IN NEW BRAUNFELS, TX. N. WEST END AVE AND LOOP</t>
-  </si>
-  <si>
-    <t>HAD BEEN RAINING &amp; RAINWATER POOLED IN ONE AREA OF THE BLDG ROOF WHICH CAUSED THE ROOF IN THAT AREA TO FALL DOWN.</t>
-  </si>
-  <si>
-    <t>THEFT OF INSURED'S MISC. UNSCHEDULED OWNED EQ FROM JOBSITE. INSURED'S JOBSITE TOOL BOX AND ALL OF THE TOOLS INSIDE THE TOOL BOX WERE STOLEN. THE CABLE SECURING THE BOX @ JOBSITE WAS CUT.</t>
+    <t>EMPLOYEE WAS WALKING DOWNSTAIRS OUTSIDE AND SLIPPED ON SNOW AND ICE AND FELL ON RIGHT SHOULDER. CANT LIFT AND IS HAVING PAIN.</t>
+  </si>
+  <si>
+    <t>IW SPRAYING CLEANER ON SURFACE, BACKSPLASH OF CLEANING CHEMICALS WENT ONTO UPPER CHEEKS UNDER EYES RESULTING IN REDNESS, INFLAMMATION</t>
+  </si>
+  <si>
+    <t>IE WAS REMOVING A FIRE FILING CABINET TO THE DUMPSTER WHICH WAS ON WHEELS&amp;ON A FORKLIFT WHEN IE LIFTED THE FIRE FILING CABINET A LITTLE BIT IE IS HAVING SOME SORENESS&amp;BURNING TO THE ABDOMINAL&amp;GOING TOWARD THE THE LT HIP AREA</t>
+  </si>
+  <si>
+    <t>IE WAS TRIMMING BUSHES USING A POLE TRIMMER, FELT PAIN ON RT SIDE AND MIDDLE BACK</t>
+  </si>
+  <si>
+    <t>IW WAS ON THE PLAYGROUND WITH KIDS, FINGER GOT CAUGHT IN JACKET AND PULLED IT, UNABLE TO EXTEND FINGER</t>
+  </si>
+  <si>
+    <t>IW WAS RUNNING WITH MIDDLE SCHOOL GIRLS TRACK TEAM AND HEARD HIS LEFT THIGH (UPPER LEG) POP. (MUSCLE ON THE FRONT)</t>
+  </si>
+  <si>
+    <t>IW WAS MOVING BOXES AND WAS STACKING ON TOP OF 4 DRAWER FILE CABINET WHEN IW FELT PAIN IN LEFT ELBOW</t>
+  </si>
+  <si>
+    <t>EE WAS WALKING GOING INTO A MEETING TRIP AND FELL ON THE SIDEWAY AND EE HAS A GASH OVER THE RIGHT EYEBROW AND RIGHT WRIST SORENESS</t>
+  </si>
+  <si>
+    <t>HE WAS TRIMMING SHRUBS AND GOT A RASH THAT HAS SPREAD ON HANDS.</t>
+  </si>
+  <si>
+    <t>IW WAS CLEANING CLASSROOM, FILE CABINET SLAMMED BACK AND CAUGHT FINGER</t>
+  </si>
+  <si>
+    <t>THE IE WAS WALKING AND GROUNDSKEEPERS WAS MOWING THE LAWN AND GRASS CLIPPINGS FLEW INTO HER RIGHT EYE</t>
+  </si>
+  <si>
+    <t>IE WAS WEED EATING &amp; A ROCK FLEW UP &amp; KNOCKED UP SAFETY GLASS &amp; ROCK WENT INTO LEFT EYE, CAUSING BLURRED VISION, REDNESS &amp; TEARING &amp; PAIN.</t>
+  </si>
+  <si>
+    <t>IE TRIPPED OVER AN OBJECT IN THE HALLWAY, FELL, JARRED HER NECK, SHOULDERS, BACK AND CHEST</t>
+  </si>
+  <si>
+    <t>IW WAS MOVING BOXES AND CRATES IN A STORAGE ROOM AND FELT PAIN IN MID BACK FROM LIFTING</t>
+  </si>
+  <si>
+    <t>IE LIFTING BUCKETS OF PAINT AND LEFT UPPER BACK, NECK, AND JAW FELT PAIN</t>
+  </si>
+  <si>
+    <t>FOR REPORT ONLY AT THIS TIME/IW WAS WALKING FROM HER CAR AND TRIPPED ON THE SIDEWALK AND TRIPPED AND HIT HER RIGHT KNEE-BRUISED AND LEFT PALM/WRIST - SCRAPES/SORE</t>
+  </si>
+  <si>
+    <t>EE WAS LIFTING &amp; MOVING 50LB BAGS OF FERTILIZER AND GRASS SEED AND EE BEGAN TO EXPERIENCE PAIN IN LOWER BACK AND HIP DOWN THE RT LEG</t>
+  </si>
+  <si>
+    <t>IW WAS ON A PATROL, WALKED INTO A BUILDING, WENT DOWN SOME STAIRS SLIPPED AND FELL DOWN THE STAIRS CAUSING LEFT LOWER BACK ,LEFT FLANK AND RIGHT WRIST ARE BRUISED AND SORE</t>
+  </si>
+  <si>
+    <t>IW DROPPED THE EDGE OF A BROWN FOLDING TABLE ON THE TOP OF HER RIGHT FOOT</t>
+  </si>
+  <si>
+    <t>LORI WAS OPENING THE FRONT DOOR OF THE MCFARLAND BUILDING WHICH IS HEAVY AND IT SWUNG BACK AND CAUGHT HER LEFT SHOE. IT MADE HER FALL, LANDING ON HER RIGHT HAND. HER THUMB WENT OUT OF SOCKET AND THEN BACK IN.</t>
+  </si>
+  <si>
+    <t>ISSAM WAS CLEANING THE FLOORS WITH A MACHINE AND HAD INCREASING LOW BACK PAIN. NO SUDDEN PAIN AND NO PAIN OR INJURY BEFORE WORK. TOOK 4 IBUPROFEN AND PUT AN OTC PATCH ON BACK WITHOUT RELIEF. 8/10 PAIN TODAY WITH LIMITED EXTENSION.</t>
+  </si>
+  <si>
+    <t>IW WAS CLEANING SHOWERS IN DORM, SLIPPED, TRIED TO CATCH HER SELF WITH RIGHT HAND AND HYPEREXTENED RIGHT MIDDLE FINGER , AND HIT HIP ON FLOOR</t>
+  </si>
+  <si>
+    <t>EMPLOYEE WAS WALKING UP THE STAIRS IN BURTON WHEN SHE TWISTED AND FELT SOMETHING RIP IN LEFT HIP. SHE SAW HER PCP AND WAS GIVEN MEDICATION THEN REFERRED TO AN ORTHOPEDIST WHO DID A MRI AND A JOINT INJECTION.</t>
+  </si>
+  <si>
+    <t>IE MOVING MULCH AND A PIECE OF MULCH FLEW INTO HIS RT EYE, CAUSING FOREIGN BODY IN EYE</t>
+  </si>
+  <si>
+    <t>IE WAS BURNED RT FOREARM WHEN SAUDERING PIPES</t>
+  </si>
+  <si>
+    <t>AS SHE WAS SWEEPING IN SCIENCE BUILDING, SHE SLIPPED ON SOMETHING WET AND FELL BACKWARDS. SHE HIT HER LEFT ARM ON A CHAIR. SHE HAD PAIN THERE INITIALLY THEN HAD PAIN IN LEFT FOOT THE NEXT DAY.</t>
+  </si>
+  <si>
+    <t>EE WAS BUILDING A SET FOR A PLAY &amp; POWERED DRILL SLIPPED &amp; CUT/PUNCTURE WOUND HIS LEFT 2ND FINGER, CAUSED SWELLING &amp; TENDERNESS.</t>
   </si>
   <si>
     <t>Claimant</t>
   </si>
   <si>
-    <t>WIN-CON ENTERPRISES, INC</t>
+    <t>ADAMS CYNDI</t>
+  </si>
+  <si>
+    <t>BIRU ARSAMA</t>
+  </si>
+  <si>
+    <t>BRUCE JOHN D</t>
+  </si>
+  <si>
+    <t>CAMPOS GERSON D</t>
+  </si>
+  <si>
+    <t>CHISAM CHARLES</t>
+  </si>
+  <si>
+    <t>CHISAM CHARLES M</t>
+  </si>
+  <si>
+    <t>COLVERT SONYA T</t>
+  </si>
+  <si>
+    <t>CROWE LISA</t>
+  </si>
+  <si>
+    <t>FONTANEZ JOSE</t>
+  </si>
+  <si>
+    <t>HARVEY CYNTHIA</t>
+  </si>
+  <si>
+    <t>HENSLEY NAN P</t>
+  </si>
+  <si>
+    <t>HERNANDEZ STEVEN</t>
+  </si>
+  <si>
+    <t>HOWARD LAURIE D</t>
+  </si>
+  <si>
+    <t>KEY JOSHUA M</t>
+  </si>
+  <si>
+    <t>LAMBERTH DEAN H</t>
+  </si>
+  <si>
+    <t>LANDISS LESLIE R</t>
+  </si>
+  <si>
+    <t>LEWIS CHRIS M</t>
+  </si>
+  <si>
+    <t>LIVINGSTON NICHOLAS P</t>
+  </si>
+  <si>
+    <t>MANSFIELD MOLLY S</t>
+  </si>
+  <si>
+    <t>MARTIN LORI</t>
+  </si>
+  <si>
+    <t>MELEK ISSAM</t>
+  </si>
+  <si>
+    <t>MERANI JEHAN H</t>
+  </si>
+  <si>
+    <t>NOLA KAMALA</t>
+  </si>
+  <si>
+    <t>PETTY TAYLOR A</t>
+  </si>
+  <si>
+    <t>SCHMIDT JOSEPH R</t>
+  </si>
+  <si>
+    <t>WALIO HAMZIA</t>
+  </si>
+  <si>
+    <t>WALLACE SAWYER</t>
   </si>
   <si>
     <t>nature_of_injury</t>
@@ -376,6 +769,75 @@
     <t>part_of_body</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>cheeks, eyes</t>
+  </si>
+  <si>
+    <t>hip</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>left, thigh</t>
+  </si>
+  <si>
+    <t>left, elbow</t>
+  </si>
+  <si>
+    <t>right, eyebrow, wrist</t>
+  </si>
+  <si>
+    <t>back, finger</t>
+  </si>
+  <si>
+    <t>right, eye</t>
+  </si>
+  <si>
+    <t>left, redness</t>
+  </si>
+  <si>
+    <t>back, chest</t>
+  </si>
+  <si>
+    <t>left, jaw</t>
+  </si>
+  <si>
+    <t>right, left</t>
+  </si>
+  <si>
+    <t>back, hip, leg</t>
+  </si>
+  <si>
+    <t>left, back, right, wrist</t>
+  </si>
+  <si>
+    <t>right, foot</t>
+  </si>
+  <si>
+    <t>back, left, right, thumb</t>
+  </si>
+  <si>
+    <t>right, hand, finger, hip</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>body, eye</t>
+  </si>
+  <si>
+    <t>forearm</t>
+  </si>
+  <si>
+    <t>left, arm, foot</t>
+  </si>
+  <si>
     <t>x1</t>
   </si>
   <si>
@@ -397,13 +859,85 @@
     <t>row_id</t>
   </si>
   <si>
-    <t>f8204afb-7c5c-4682-93e6-834b9210a4fa</t>
-  </si>
-  <si>
-    <t>d797549f-d715-49f5-acec-166a252f6852</t>
-  </si>
-  <si>
-    <t>f14fcbbb-2fa6-4d24-ba4f-81cb03cd8963</t>
+    <t>709e7539-2347-400d-a070-d5ba3a8b7b9d</t>
+  </si>
+  <si>
+    <t>93c9e4e2-7df9-4e3d-8e69-b7a1d0a2c66d</t>
+  </si>
+  <si>
+    <t>880c701e-5c4e-4e87-a160-b2d0b2300e6f</t>
+  </si>
+  <si>
+    <t>cb944291-26a1-4616-9e40-377667dfc024</t>
+  </si>
+  <si>
+    <t>79793671-8029-4bb8-b329-620867278272</t>
+  </si>
+  <si>
+    <t>5394b44a-a31e-45e4-bf31-536d40575c20</t>
+  </si>
+  <si>
+    <t>e03d66b6-198e-4d7d-92c1-0afa42a94362</t>
+  </si>
+  <si>
+    <t>2f1d647c-29cb-48b3-aa5c-7a6de50221fd</t>
+  </si>
+  <si>
+    <t>491a2a08-d1b0-40c2-ba97-ad3f1c50fea4</t>
+  </si>
+  <si>
+    <t>29b6d595-fd80-4f59-8afc-88caf339c173</t>
+  </si>
+  <si>
+    <t>1bc4298f-4d9a-4388-9c34-0e6fed1398a6</t>
+  </si>
+  <si>
+    <t>c17a5766-5aca-4504-8dc9-0d8fb7d0fda6</t>
+  </si>
+  <si>
+    <t>7dea7476-303e-4a40-8fce-64bb6d123c81</t>
+  </si>
+  <si>
+    <t>8b4a6f06-6bc4-40c2-a954-1c01e535081a</t>
+  </si>
+  <si>
+    <t>d3501290-643e-4beb-adf9-40acf9422dc4</t>
+  </si>
+  <si>
+    <t>8b597337-a1c2-41ae-bc3d-cfcd9f396ee2</t>
+  </si>
+  <si>
+    <t>b5a2ed3f-9da4-42a4-8d48-4b3ac7ca33a0</t>
+  </si>
+  <si>
+    <t>3245b488-fcbb-4c73-9e2a-8fb62c688a30</t>
+  </si>
+  <si>
+    <t>59e99c96-883c-457c-ad93-495e72031ba4</t>
+  </si>
+  <si>
+    <t>4201115b-6b5d-4add-ada1-477f58c51897</t>
+  </si>
+  <si>
+    <t>859a27be-8d1c-4038-9a7e-e40e3b1bcd29</t>
+  </si>
+  <si>
+    <t>88093513-ff66-4f38-b567-50585951ec58</t>
+  </si>
+  <si>
+    <t>2a7a4bc2-3885-44ed-8686-d85835e936cf</t>
+  </si>
+  <si>
+    <t>6ecec2c8-7a48-471c-8898-6121f4b51e3c</t>
+  </si>
+  <si>
+    <t>ae27b8e7-6091-4aa6-8e79-bbbe6ef37c3e</t>
+  </si>
+  <si>
+    <t>0c12ac09-75d3-4175-a512-7174365b26b5</t>
+  </si>
+  <si>
+    <t>95fa9e64-c3df-4d3a-a939-04ef69c42e17</t>
   </si>
 </sst>
 </file>
@@ -735,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CY4"/>
+  <dimension ref="A1:CY28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -755,301 +1289,301 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="P1" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="Q1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="R1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="S1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="T1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="U1" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="V1" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="W1" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="X1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="Y1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="Z1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="AA1" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="AB1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="AC1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="AD1" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="AE1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="AF1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="AG1" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="AH1" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="AI1" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="AJ1" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="AK1" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="AL1" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="AM1" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="AN1" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="AO1" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AP1" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="AQ1" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="AR1" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="AS1" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="AT1" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="AU1" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="AV1" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="AW1" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="AX1" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="AY1" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="AZ1" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="BA1" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="BB1" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="BC1" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="BD1" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="BE1" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="BF1" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="BG1" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="BH1" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="BI1" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="BJ1" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="BK1" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="BL1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="BM1" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="BN1" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="BO1" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="BP1" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="BQ1" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="BR1" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="BS1" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="BT1" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="BU1" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="BV1" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="BW1" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="BX1" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="BY1" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="BZ1" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="CA1" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="CB1" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="CC1" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="CD1" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="CE1" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="CF1" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="CG1" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="CH1" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="CI1" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="CJ1" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="CK1" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="CL1" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="CM1" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="CN1" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="CO1" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="CP1" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="CQ1" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="CR1" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="CS1" t="s">
-        <v>120</v>
+        <v>274</v>
       </c>
       <c r="CT1" t="s">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="CU1" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="CV1" t="s">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="CW1" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="CX1" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="CY1" t="s">
-        <v>126</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:103">
@@ -1066,31 +1600,34 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>110</v>
+      </c>
+      <c r="O2" t="s">
+        <v>113</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1138,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>120.26</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1147,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>120.26</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1168,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>120.26</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1177,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>120.26</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -1273,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="BZ2">
-        <v>3654.79</v>
+        <v>13.43</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1282,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CC2">
-        <v>3654.79</v>
+        <v>13.43</v>
       </c>
       <c r="CD2">
-        <v>3655</v>
+        <v>13</v>
       </c>
       <c r="CE2">
-        <v>3295221.15</v>
+        <v>120.26</v>
       </c>
       <c r="CF2">
         <v>0</v>
@@ -1297,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>3295221.15</v>
+        <v>120.26</v>
       </c>
       <c r="CI2">
-        <v>3295221</v>
+        <v>120</v>
       </c>
       <c r="CJ2">
-        <v>3298875.94</v>
+        <v>133.69</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1312,31 +1849,34 @@
         <v>0</v>
       </c>
       <c r="CM2">
-        <v>3298875.94</v>
+        <v>133.69</v>
       </c>
       <c r="CN2">
-        <v>3298876</v>
+        <v>133</v>
       </c>
       <c r="CO2" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="CP2" t="s">
-        <v>117</v>
+        <v>222</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>251</v>
       </c>
       <c r="CS2">
-        <v>81.27</v>
+        <v>95.83</v>
       </c>
       <c r="CT2">
-        <v>3125.55</v>
+        <v>3125</v>
       </c>
       <c r="CU2">
-        <v>650.75</v>
+        <v>640.3200000000001</v>
       </c>
       <c r="CV2">
-        <v>1383.33</v>
+        <v>783.33</v>
       </c>
       <c r="CY2" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:103">
@@ -1350,34 +1890,37 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>110</v>
+      </c>
+      <c r="O3" t="s">
+        <v>114</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1560,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>17609.14</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -1569,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>17609.14</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>17609</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>32246.4</v>
+        <v>0</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -1584,13 +2127,13 @@
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>32246.4</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>32246</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>49855.54</v>
+        <v>0</v>
       </c>
       <c r="CK3">
         <v>0</v>
@@ -1599,31 +2142,34 @@
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>49855.54</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>49855</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="CP3" t="s">
-        <v>117</v>
+        <v>223</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>252</v>
       </c>
       <c r="CS3">
-        <v>81.31999999999999</v>
+        <v>95.83</v>
       </c>
       <c r="CT3">
-        <v>3125.73</v>
+        <v>3125</v>
       </c>
       <c r="CU3">
-        <v>1417.13</v>
+        <v>823.65</v>
       </c>
       <c r="CV3">
-        <v>1558.33</v>
+        <v>966.67</v>
       </c>
       <c r="CY3" t="s">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:103">
@@ -1637,280 +2183,7315 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS4">
+        <v>95.83</v>
+      </c>
+      <c r="CT4">
+        <v>3125</v>
+      </c>
+      <c r="CU4">
+        <v>1006.98</v>
+      </c>
+      <c r="CV4">
+        <v>1145.83</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:103">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>29.4</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>29.4</v>
+      </c>
+      <c r="AK5">
+        <v>29</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>29.4</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>29.4</v>
+      </c>
+      <c r="AU5">
+        <v>29</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>29.4</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>29.4</v>
+      </c>
+      <c r="CI5">
+        <v>29</v>
+      </c>
+      <c r="CJ5">
+        <v>29.4</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>29.4</v>
+      </c>
+      <c r="CN5">
+        <v>29</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>254</v>
+      </c>
+      <c r="CS5">
+        <v>95.83</v>
+      </c>
+      <c r="CT5">
+        <v>3125</v>
+      </c>
+      <c r="CU5">
+        <v>1190.32</v>
+      </c>
+      <c r="CV5">
+        <v>1333.33</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:103">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>609.39</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>609.39</v>
+      </c>
+      <c r="AK6">
+        <v>609</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>609.39</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>609.39</v>
+      </c>
+      <c r="AU6">
+        <v>609</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>163.89</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>163.89</v>
+      </c>
+      <c r="CD6">
+        <v>164</v>
+      </c>
+      <c r="CE6">
+        <v>609.39</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>609.39</v>
+      </c>
+      <c r="CI6">
+        <v>609</v>
+      </c>
+      <c r="CJ6">
+        <v>773.28</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>773.28</v>
+      </c>
+      <c r="CN6">
+        <v>773</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>198</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>255</v>
+      </c>
+      <c r="CS6">
+        <v>95.83</v>
+      </c>
+      <c r="CT6">
+        <v>3125</v>
+      </c>
+      <c r="CU6">
+        <v>1373.65</v>
+      </c>
+      <c r="CV6">
+        <v>1516.67</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>52.35</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>52.35</v>
+      </c>
+      <c r="AK7">
+        <v>52</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>52.35</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>52.35</v>
+      </c>
+      <c r="AU7">
+        <v>52</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>24.75</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>24.75</v>
+      </c>
+      <c r="CD7">
+        <v>25</v>
+      </c>
+      <c r="CE7">
+        <v>52.35</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>52.35</v>
+      </c>
+      <c r="CI7">
+        <v>52</v>
+      </c>
+      <c r="CJ7">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="CN7">
+        <v>77</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>227</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>256</v>
+      </c>
+      <c r="CS7">
+        <v>95.83</v>
+      </c>
+      <c r="CT7">
+        <v>3125</v>
+      </c>
+      <c r="CU7">
+        <v>1556.98</v>
+      </c>
+      <c r="CV7">
+        <v>1700</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>1701.74</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>1701.74</v>
+      </c>
+      <c r="AK8">
+        <v>1702</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>1701.74</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>1701.74</v>
+      </c>
+      <c r="AU8">
+        <v>1702</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>150.47</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>150.47</v>
+      </c>
+      <c r="CD8">
+        <v>150</v>
+      </c>
+      <c r="CE8">
+        <v>1701.74</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>1701.74</v>
+      </c>
+      <c r="CI8">
+        <v>1702</v>
+      </c>
+      <c r="CJ8">
+        <v>1852.21</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>1852.21</v>
+      </c>
+      <c r="CN8">
+        <v>1852</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>228</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>257</v>
+      </c>
+      <c r="CS8">
+        <v>95.83</v>
+      </c>
+      <c r="CT8">
+        <v>3125</v>
+      </c>
+      <c r="CU8">
+        <v>1740.32</v>
+      </c>
+      <c r="CV8">
+        <v>1883.33</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>115</v>
+      </c>
+      <c r="R9">
+        <v>1144.8</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1144.8</v>
+      </c>
+      <c r="V9">
+        <v>1145</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>1144.8</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1144.8</v>
+      </c>
+      <c r="AF9">
+        <v>1145</v>
+      </c>
+      <c r="AG9">
+        <v>5718.04</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>5718.04</v>
+      </c>
+      <c r="AK9">
+        <v>5718</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>5718.04</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>5718.04</v>
+      </c>
+      <c r="AU9">
+        <v>5718</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>5124.38</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>5124.38</v>
+      </c>
+      <c r="CD9">
+        <v>5124</v>
+      </c>
+      <c r="CE9">
+        <v>6862.84</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>6862.84</v>
+      </c>
+      <c r="CI9">
+        <v>6862.84</v>
+      </c>
+      <c r="CJ9">
+        <v>11987.22</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>11987.22</v>
+      </c>
+      <c r="CN9">
+        <v>11987</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>201</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>229</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>258</v>
+      </c>
+      <c r="CS9">
+        <v>95.83</v>
+      </c>
+      <c r="CT9">
+        <v>3125</v>
+      </c>
+      <c r="CU9">
+        <v>1923.65</v>
+      </c>
+      <c r="CV9">
+        <v>2066.67</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>116.03</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>116.03</v>
+      </c>
+      <c r="AK10">
+        <v>116</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>116.03</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>116.03</v>
+      </c>
+      <c r="AU10">
+        <v>116</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>95.83</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>95.83</v>
+      </c>
+      <c r="CD10">
+        <v>96</v>
+      </c>
+      <c r="CE10">
+        <v>116.03</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>116.03</v>
+      </c>
+      <c r="CI10">
+        <v>116</v>
+      </c>
+      <c r="CJ10">
+        <v>211.86</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>211.86</v>
+      </c>
+      <c r="CN10">
+        <v>212</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>202</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>230</v>
+      </c>
+      <c r="CS10">
+        <v>95.83</v>
+      </c>
+      <c r="CT10">
+        <v>3125</v>
+      </c>
+      <c r="CU10">
+        <v>2106.98</v>
+      </c>
+      <c r="CV10">
+        <v>2404.17</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:103">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>1286.6</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>1286.6</v>
+      </c>
+      <c r="AK11">
+        <v>1287</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>1286.6</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>1286.6</v>
+      </c>
+      <c r="AU11">
+        <v>1287</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>545.45</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>545.45</v>
+      </c>
+      <c r="CD11">
+        <v>545</v>
+      </c>
+      <c r="CE11">
+        <v>1286.6</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>1286.6</v>
+      </c>
+      <c r="CI11">
+        <v>1287</v>
+      </c>
+      <c r="CJ11">
+        <v>1832.05</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>1832.05</v>
+      </c>
+      <c r="CN11">
+        <v>1832</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>203</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>231</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>259</v>
+      </c>
+      <c r="CS11">
+        <v>95.83</v>
+      </c>
+      <c r="CT11">
+        <v>3125</v>
+      </c>
+      <c r="CU11">
+        <v>640.3200000000001</v>
+      </c>
+      <c r="CV11">
+        <v>783.33</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:103">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>202.53</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>202.53</v>
+      </c>
+      <c r="AK12">
+        <v>203</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>202.53</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>202.53</v>
+      </c>
+      <c r="AU12">
+        <v>203</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>47.92</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>47.92</v>
+      </c>
+      <c r="CD12">
+        <v>48</v>
+      </c>
+      <c r="CE12">
+        <v>202.53</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>202.53</v>
+      </c>
+      <c r="CI12">
+        <v>203</v>
+      </c>
+      <c r="CJ12">
+        <v>250.45</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>250.45</v>
+      </c>
+      <c r="CN12">
+        <v>251</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>204</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>232</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>260</v>
+      </c>
+      <c r="CS12">
+        <v>95.83</v>
+      </c>
+      <c r="CT12">
+        <v>3125</v>
+      </c>
+      <c r="CU12">
+        <v>823.65</v>
+      </c>
+      <c r="CV12">
+        <v>966.67</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:103">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>113</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>307.03</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>307.03</v>
+      </c>
+      <c r="AK13">
+        <v>307</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>307.03</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>307.03</v>
+      </c>
+      <c r="AU13">
+        <v>307</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>178.45</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>178.45</v>
+      </c>
+      <c r="CD13">
+        <v>178</v>
+      </c>
+      <c r="CE13">
+        <v>307.03</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>307.03</v>
+      </c>
+      <c r="CI13">
+        <v>307</v>
+      </c>
+      <c r="CJ13">
+        <v>485.48</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>485.48</v>
+      </c>
+      <c r="CN13">
+        <v>485</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>205</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>233</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>261</v>
+      </c>
+      <c r="CS13">
+        <v>95.83</v>
+      </c>
+      <c r="CT13">
+        <v>3125</v>
+      </c>
+      <c r="CU13">
+        <v>1006.98</v>
+      </c>
+      <c r="CV13">
+        <v>1150</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:103">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
+        <v>114</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>0</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>206</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>234</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>262</v>
+      </c>
+      <c r="CS14">
+        <v>95.83</v>
+      </c>
+      <c r="CT14">
+        <v>3125</v>
+      </c>
+      <c r="CU14">
+        <v>1190.32</v>
+      </c>
+      <c r="CV14">
+        <v>1333.33</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:103">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" t="s">
+        <v>113</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>223.74</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>223.74</v>
+      </c>
+      <c r="AK15">
+        <v>224</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>223.74</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>223.74</v>
+      </c>
+      <c r="AU15">
+        <v>224</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15">
+        <v>118.33</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>118.33</v>
+      </c>
+      <c r="CD15">
+        <v>118</v>
+      </c>
+      <c r="CE15">
+        <v>223.74</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>223.74</v>
+      </c>
+      <c r="CI15">
+        <v>224</v>
+      </c>
+      <c r="CJ15">
+        <v>342.07</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15">
+        <v>0</v>
+      </c>
+      <c r="CM15">
+        <v>342.07</v>
+      </c>
+      <c r="CN15">
+        <v>342</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>254</v>
+      </c>
+      <c r="CS15">
+        <v>95.83</v>
+      </c>
+      <c r="CT15">
+        <v>3125</v>
+      </c>
+      <c r="CU15">
+        <v>1373.65</v>
+      </c>
+      <c r="CV15">
+        <v>1516.67</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:103">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" t="s">
+        <v>114</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
+        <v>0</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16">
+        <v>0</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>208</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>236</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>263</v>
+      </c>
+      <c r="CS16">
+        <v>95.83</v>
+      </c>
+      <c r="CT16">
+        <v>3125</v>
+      </c>
+      <c r="CU16">
+        <v>1556.98</v>
+      </c>
+      <c r="CV16">
+        <v>1700</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:103">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" t="s">
+        <v>113</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>2186.63</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>2186.63</v>
+      </c>
+      <c r="AK17">
+        <v>2187</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>2186.63</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>2186.63</v>
+      </c>
+      <c r="AU17">
+        <v>2187</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <v>0</v>
+      </c>
+      <c r="BZ17">
+        <v>817.66</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
+      <c r="CC17">
+        <v>817.66</v>
+      </c>
+      <c r="CD17">
+        <v>818</v>
+      </c>
+      <c r="CE17">
+        <v>2186.63</v>
+      </c>
+      <c r="CF17">
+        <v>0</v>
+      </c>
+      <c r="CG17">
+        <v>0</v>
+      </c>
+      <c r="CH17">
+        <v>2186.63</v>
+      </c>
+      <c r="CI17">
+        <v>2187</v>
+      </c>
+      <c r="CJ17">
+        <v>3004.29</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>3004.29</v>
+      </c>
+      <c r="CN17">
+        <v>3005</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>209</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>264</v>
+      </c>
+      <c r="CS17">
+        <v>95.83</v>
+      </c>
+      <c r="CT17">
+        <v>3125</v>
+      </c>
+      <c r="CU17">
+        <v>1740.32</v>
+      </c>
+      <c r="CV17">
+        <v>1883.33</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:103">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>420.46</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>420.46</v>
+      </c>
+      <c r="AK18">
+        <v>420</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>420.46</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>420.46</v>
+      </c>
+      <c r="AU18">
+        <v>420</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18">
+        <v>220.73</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>220.73</v>
+      </c>
+      <c r="CD18">
+        <v>221</v>
+      </c>
+      <c r="CE18">
+        <v>420.46</v>
+      </c>
+      <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>420.46</v>
+      </c>
+      <c r="CI18">
+        <v>420</v>
+      </c>
+      <c r="CJ18">
+        <v>641.1900000000001</v>
+      </c>
+      <c r="CK18">
+        <v>0</v>
+      </c>
+      <c r="CL18">
+        <v>0</v>
+      </c>
+      <c r="CM18">
+        <v>641.1900000000001</v>
+      </c>
+      <c r="CN18">
+        <v>641</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>210</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>238</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>265</v>
+      </c>
+      <c r="CS18">
+        <v>95.83</v>
+      </c>
+      <c r="CT18">
+        <v>3125</v>
+      </c>
+      <c r="CU18">
+        <v>1923.65</v>
+      </c>
+      <c r="CV18">
+        <v>2066.67</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:103">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" t="s">
+        <v>114</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19">
+        <v>0</v>
+      </c>
+      <c r="CM19">
+        <v>0</v>
+      </c>
+      <c r="CN19">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>211</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>239</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>266</v>
+      </c>
+      <c r="CS19">
+        <v>95.83</v>
+      </c>
+      <c r="CT19">
+        <v>3125</v>
+      </c>
+      <c r="CU19">
+        <v>2106.98</v>
+      </c>
+      <c r="CV19">
+        <v>2404.17</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:103">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" t="s">
+        <v>110</v>
+      </c>
+      <c r="O20" t="s">
+        <v>113</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>193.62</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>193.62</v>
+      </c>
+      <c r="AK20">
+        <v>194</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>193.62</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>193.62</v>
+      </c>
+      <c r="AU20">
+        <v>194</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>24.62</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>24.62</v>
+      </c>
+      <c r="CD20">
+        <v>25</v>
+      </c>
+      <c r="CE20">
+        <v>193.62</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>193.62</v>
+      </c>
+      <c r="CI20">
+        <v>194</v>
+      </c>
+      <c r="CJ20">
+        <v>218.24</v>
+      </c>
+      <c r="CK20">
+        <v>0</v>
+      </c>
+      <c r="CL20">
+        <v>0</v>
+      </c>
+      <c r="CM20">
+        <v>218.24</v>
+      </c>
+      <c r="CN20">
+        <v>219</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>212</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>240</v>
+      </c>
+      <c r="CR20" t="s">
+        <v>267</v>
+      </c>
+      <c r="CS20">
+        <v>95.83</v>
+      </c>
+      <c r="CT20">
+        <v>3125</v>
+      </c>
+      <c r="CU20">
+        <v>640.3200000000001</v>
+      </c>
+      <c r="CV20">
+        <v>783.33</v>
+      </c>
+      <c r="CY20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:103">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>629.46</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>629.46</v>
+      </c>
+      <c r="AK21">
+        <v>629</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>629.46</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>629.46</v>
+      </c>
+      <c r="AU21">
+        <v>629</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21">
+        <v>280.85</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
+      <c r="CC21">
+        <v>280.85</v>
+      </c>
+      <c r="CD21">
+        <v>281</v>
+      </c>
+      <c r="CE21">
+        <v>629.46</v>
+      </c>
+      <c r="CF21">
+        <v>0</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>629.46</v>
+      </c>
+      <c r="CI21">
+        <v>629</v>
+      </c>
+      <c r="CJ21">
+        <v>910.3099999999999</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21">
+        <v>0</v>
+      </c>
+      <c r="CM21">
+        <v>910.3099999999999</v>
+      </c>
+      <c r="CN21">
+        <v>910</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>213</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>241</v>
+      </c>
+      <c r="CR21" t="s">
+        <v>268</v>
+      </c>
+      <c r="CS21">
+        <v>95.83</v>
+      </c>
+      <c r="CT21">
+        <v>3125</v>
+      </c>
+      <c r="CU21">
+        <v>823.65</v>
+      </c>
+      <c r="CV21">
+        <v>962.5</v>
+      </c>
+      <c r="CY21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:103">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
         <v>30</v>
       </c>
-      <c r="M4" t="s">
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" t="s">
+        <v>110</v>
+      </c>
+      <c r="O22" t="s">
+        <v>113</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>1477.15</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>1477.15</v>
+      </c>
+      <c r="AK22">
+        <v>1477</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>1477.15</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>1477.15</v>
+      </c>
+      <c r="AU22">
+        <v>1477</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="BZ22">
+        <v>34.31</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
+      <c r="CC22">
+        <v>34.31</v>
+      </c>
+      <c r="CD22">
+        <v>34</v>
+      </c>
+      <c r="CE22">
+        <v>1477.15</v>
+      </c>
+      <c r="CF22">
+        <v>0</v>
+      </c>
+      <c r="CG22">
+        <v>0</v>
+      </c>
+      <c r="CH22">
+        <v>1477.15</v>
+      </c>
+      <c r="CI22">
+        <v>1477</v>
+      </c>
+      <c r="CJ22">
+        <v>1511.46</v>
+      </c>
+      <c r="CK22">
+        <v>0</v>
+      </c>
+      <c r="CL22">
+        <v>0</v>
+      </c>
+      <c r="CM22">
+        <v>1511.46</v>
+      </c>
+      <c r="CN22">
+        <v>1511</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>214</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>242</v>
+      </c>
+      <c r="CR22" t="s">
+        <v>254</v>
+      </c>
+      <c r="CS22">
+        <v>95.83</v>
+      </c>
+      <c r="CT22">
+        <v>3125</v>
+      </c>
+      <c r="CU22">
+        <v>1006.98</v>
+      </c>
+      <c r="CV22">
+        <v>1145.83</v>
+      </c>
+      <c r="CY22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:103">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>2876.47</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>2876.47</v>
+      </c>
+      <c r="AK23">
+        <v>2876</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>2876.47</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>2876.47</v>
+      </c>
+      <c r="AU23">
+        <v>2876</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>377.93</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
+      <c r="CC23">
+        <v>377.93</v>
+      </c>
+      <c r="CD23">
+        <v>378</v>
+      </c>
+      <c r="CE23">
+        <v>2876.47</v>
+      </c>
+      <c r="CF23">
+        <v>0</v>
+      </c>
+      <c r="CG23">
+        <v>0</v>
+      </c>
+      <c r="CH23">
+        <v>2876.47</v>
+      </c>
+      <c r="CI23">
+        <v>2876</v>
+      </c>
+      <c r="CJ23">
+        <v>3254.4</v>
+      </c>
+      <c r="CK23">
+        <v>0</v>
+      </c>
+      <c r="CL23">
+        <v>0</v>
+      </c>
+      <c r="CM23">
+        <v>3254.4</v>
+      </c>
+      <c r="CN23">
+        <v>3254</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>215</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>243</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>269</v>
+      </c>
+      <c r="CS23">
+        <v>95.83</v>
+      </c>
+      <c r="CT23">
+        <v>3125</v>
+      </c>
+      <c r="CU23">
+        <v>1190.32</v>
+      </c>
+      <c r="CV23">
+        <v>1333.33</v>
+      </c>
+      <c r="CY23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:103">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
         <v>32</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>953.8</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>953.8</v>
-      </c>
-      <c r="CD4">
-        <v>954</v>
-      </c>
-      <c r="CE4">
-        <v>20000</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>20000</v>
-      </c>
-      <c r="CI4">
-        <v>20000</v>
-      </c>
-      <c r="CJ4">
-        <v>20953.8</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>20953.8</v>
-      </c>
-      <c r="CN4">
-        <v>20954</v>
-      </c>
-      <c r="CO4" t="s">
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" t="s">
+        <v>110</v>
+      </c>
+      <c r="O24" t="s">
         <v>115</v>
       </c>
-      <c r="CP4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CS4">
-        <v>80.93000000000001</v>
-      </c>
-      <c r="CT4">
-        <v>3126.12</v>
-      </c>
-      <c r="CU4">
-        <v>1598.82</v>
-      </c>
-      <c r="CV4">
-        <v>2412.5</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>129</v>
+      <c r="R24">
+        <v>7765.5</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>7765.5</v>
+      </c>
+      <c r="V24">
+        <v>7766</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>7765.5</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>7765.5</v>
+      </c>
+      <c r="AF24">
+        <v>7766</v>
+      </c>
+      <c r="AG24">
+        <v>27922.43</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>27922.43</v>
+      </c>
+      <c r="AK24">
+        <v>27922</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>27922.43</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>27922.43</v>
+      </c>
+      <c r="AU24">
+        <v>27922</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>0</v>
+      </c>
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+      <c r="BW24">
+        <v>0</v>
+      </c>
+      <c r="BX24">
+        <v>0</v>
+      </c>
+      <c r="BY24">
+        <v>0</v>
+      </c>
+      <c r="BZ24">
+        <v>10098.15</v>
+      </c>
+      <c r="CA24">
+        <v>0</v>
+      </c>
+      <c r="CB24">
+        <v>0</v>
+      </c>
+      <c r="CC24">
+        <v>10098.15</v>
+      </c>
+      <c r="CD24">
+        <v>10098</v>
+      </c>
+      <c r="CE24">
+        <v>35687.93</v>
+      </c>
+      <c r="CF24">
+        <v>0</v>
+      </c>
+      <c r="CG24">
+        <v>0</v>
+      </c>
+      <c r="CH24">
+        <v>35687.93</v>
+      </c>
+      <c r="CI24">
+        <v>35687.93</v>
+      </c>
+      <c r="CJ24">
+        <v>45786.08</v>
+      </c>
+      <c r="CK24">
+        <v>0</v>
+      </c>
+      <c r="CL24">
+        <v>0</v>
+      </c>
+      <c r="CM24">
+        <v>45786.08</v>
+      </c>
+      <c r="CN24">
+        <v>45786</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>216</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>244</v>
+      </c>
+      <c r="CR24" t="s">
+        <v>270</v>
+      </c>
+      <c r="CS24">
+        <v>95.83</v>
+      </c>
+      <c r="CT24">
+        <v>3125</v>
+      </c>
+      <c r="CU24">
+        <v>1373.65</v>
+      </c>
+      <c r="CV24">
+        <v>1512.5</v>
+      </c>
+      <c r="CY24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:103">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" t="s">
+        <v>114</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>0</v>
+      </c>
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25">
+        <v>0</v>
+      </c>
+      <c r="BY25">
+        <v>0</v>
+      </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
+      <c r="CB25">
+        <v>0</v>
+      </c>
+      <c r="CC25">
+        <v>0</v>
+      </c>
+      <c r="CD25">
+        <v>0</v>
+      </c>
+      <c r="CE25">
+        <v>0</v>
+      </c>
+      <c r="CF25">
+        <v>0</v>
+      </c>
+      <c r="CG25">
+        <v>0</v>
+      </c>
+      <c r="CH25">
+        <v>0</v>
+      </c>
+      <c r="CI25">
+        <v>0</v>
+      </c>
+      <c r="CJ25">
+        <v>0</v>
+      </c>
+      <c r="CK25">
+        <v>0</v>
+      </c>
+      <c r="CL25">
+        <v>0</v>
+      </c>
+      <c r="CM25">
+        <v>0</v>
+      </c>
+      <c r="CN25">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>217</v>
+      </c>
+      <c r="CP25" t="s">
+        <v>245</v>
+      </c>
+      <c r="CR25" t="s">
+        <v>271</v>
+      </c>
+      <c r="CS25">
+        <v>95.83</v>
+      </c>
+      <c r="CT25">
+        <v>3125</v>
+      </c>
+      <c r="CU25">
+        <v>1556.98</v>
+      </c>
+      <c r="CV25">
+        <v>1700</v>
+      </c>
+      <c r="CY25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:103">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" t="s">
+        <v>110</v>
+      </c>
+      <c r="O26" t="s">
+        <v>114</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
+      </c>
+      <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BX26">
+        <v>0</v>
+      </c>
+      <c r="BY26">
+        <v>0</v>
+      </c>
+      <c r="BZ26">
+        <v>0</v>
+      </c>
+      <c r="CA26">
+        <v>0</v>
+      </c>
+      <c r="CB26">
+        <v>0</v>
+      </c>
+      <c r="CC26">
+        <v>0</v>
+      </c>
+      <c r="CD26">
+        <v>0</v>
+      </c>
+      <c r="CE26">
+        <v>0</v>
+      </c>
+      <c r="CF26">
+        <v>0</v>
+      </c>
+      <c r="CG26">
+        <v>0</v>
+      </c>
+      <c r="CH26">
+        <v>0</v>
+      </c>
+      <c r="CI26">
+        <v>0</v>
+      </c>
+      <c r="CJ26">
+        <v>0</v>
+      </c>
+      <c r="CK26">
+        <v>0</v>
+      </c>
+      <c r="CL26">
+        <v>0</v>
+      </c>
+      <c r="CM26">
+        <v>0</v>
+      </c>
+      <c r="CN26">
+        <v>0</v>
+      </c>
+      <c r="CO26" t="s">
+        <v>218</v>
+      </c>
+      <c r="CP26" t="s">
+        <v>246</v>
+      </c>
+      <c r="CR26" t="s">
+        <v>272</v>
+      </c>
+      <c r="CS26">
+        <v>95.83</v>
+      </c>
+      <c r="CT26">
+        <v>3125</v>
+      </c>
+      <c r="CU26">
+        <v>1740.32</v>
+      </c>
+      <c r="CV26">
+        <v>1883.33</v>
+      </c>
+      <c r="CY26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:103">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27" t="s">
+        <v>108</v>
+      </c>
+      <c r="M27" t="s">
+        <v>110</v>
+      </c>
+      <c r="O27" t="s">
+        <v>113</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>662.9400000000001</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>662.9400000000001</v>
+      </c>
+      <c r="AK27">
+        <v>663</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>662.9400000000001</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>662.9400000000001</v>
+      </c>
+      <c r="AU27">
+        <v>663</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27">
+        <v>0</v>
+      </c>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BY27">
+        <v>0</v>
+      </c>
+      <c r="BZ27">
+        <v>22.11</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
+      <c r="CC27">
+        <v>22.11</v>
+      </c>
+      <c r="CD27">
+        <v>22</v>
+      </c>
+      <c r="CE27">
+        <v>662.9400000000001</v>
+      </c>
+      <c r="CF27">
+        <v>0</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CH27">
+        <v>662.9400000000001</v>
+      </c>
+      <c r="CI27">
+        <v>663</v>
+      </c>
+      <c r="CJ27">
+        <v>685.05</v>
+      </c>
+      <c r="CK27">
+        <v>0</v>
+      </c>
+      <c r="CL27">
+        <v>0</v>
+      </c>
+      <c r="CM27">
+        <v>685.05</v>
+      </c>
+      <c r="CN27">
+        <v>685</v>
+      </c>
+      <c r="CO27" t="s">
+        <v>219</v>
+      </c>
+      <c r="CP27" t="s">
+        <v>247</v>
+      </c>
+      <c r="CR27" t="s">
+        <v>273</v>
+      </c>
+      <c r="CS27">
+        <v>95.83</v>
+      </c>
+      <c r="CT27">
+        <v>3125</v>
+      </c>
+      <c r="CU27">
+        <v>1923.65</v>
+      </c>
+      <c r="CV27">
+        <v>2066.67</v>
+      </c>
+      <c r="CY27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:103">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" t="s">
+        <v>110</v>
+      </c>
+      <c r="O28" t="s">
+        <v>113</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>654.72</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>654.72</v>
+      </c>
+      <c r="AK28">
+        <v>655</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>654.72</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>654.72</v>
+      </c>
+      <c r="AU28">
+        <v>655</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BU28">
+        <v>0</v>
+      </c>
+      <c r="BV28">
+        <v>0</v>
+      </c>
+      <c r="BW28">
+        <v>0</v>
+      </c>
+      <c r="BX28">
+        <v>0</v>
+      </c>
+      <c r="BY28">
+        <v>0</v>
+      </c>
+      <c r="BZ28">
+        <v>25.06</v>
+      </c>
+      <c r="CA28">
+        <v>0</v>
+      </c>
+      <c r="CB28">
+        <v>0</v>
+      </c>
+      <c r="CC28">
+        <v>25.06</v>
+      </c>
+      <c r="CD28">
+        <v>25</v>
+      </c>
+      <c r="CE28">
+        <v>654.72</v>
+      </c>
+      <c r="CF28">
+        <v>0</v>
+      </c>
+      <c r="CG28">
+        <v>0</v>
+      </c>
+      <c r="CH28">
+        <v>654.72</v>
+      </c>
+      <c r="CI28">
+        <v>655</v>
+      </c>
+      <c r="CJ28">
+        <v>679.78</v>
+      </c>
+      <c r="CK28">
+        <v>0</v>
+      </c>
+      <c r="CL28">
+        <v>0</v>
+      </c>
+      <c r="CM28">
+        <v>679.78</v>
+      </c>
+      <c r="CN28">
+        <v>680</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>220</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>248</v>
+      </c>
+      <c r="CR28" t="s">
+        <v>270</v>
+      </c>
+      <c r="CS28">
+        <v>95.83</v>
+      </c>
+      <c r="CT28">
+        <v>3125</v>
+      </c>
+      <c r="CU28">
+        <v>2106.98</v>
+      </c>
+      <c r="CV28">
+        <v>2404.17</v>
+      </c>
+      <c r="CY28" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
